--- a/NIC/NIC_StatusFile/NIC Status Excel.xlsx
+++ b/NIC/NIC_StatusFile/NIC Status Excel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B0984E-DF19-4BF4-9695-F6FFA6FE9D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="2460" tabRatio="754" firstSheet="1" activeTab="4"/>
+    <workbookView minimized="1" xWindow="1890" yWindow="270" windowWidth="9570" windowHeight="10650" tabRatio="754" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement Details to Import" sheetId="1" r:id="rId1"/>
@@ -4663,7 +4664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5009,7 +5010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5121,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>12694839.34</v>
+        <v>4209056.01</v>
       </c>
     </row>
   </sheetData>
@@ -5131,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9903,7 +9904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -14644,7 +14645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19580,10 +19581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
@@ -23402,12 +23403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27083,12 +27084,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31286,7 +31287,7 @@
         <v>1479</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -31315,7 +31316,7 @@
         <v>1492</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -31344,7 +31345,7 @@
         <v>1503</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -31376,7 +31377,7 @@
         <v>1512</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -31405,7 +31406,7 @@
         <v>1522</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G145">
         <v>5</v>
@@ -31434,7 +31435,7 @@
         <v>1532</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -31463,7 +31464,7 @@
         <v>1539</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>736</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -31485,7 +31486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
